--- a/sule_shwedagon.xlsx
+++ b/sule_shwedagon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Taung Phat Mote</t>
   </si>
   <si>
-    <t>A shae Phat Mote</t>
-  </si>
-  <si>
     <t>Youk Lann</t>
   </si>
   <si>
@@ -70,6 +67,39 @@
   </si>
   <si>
     <t>Railway</t>
+  </si>
+  <si>
+    <t>Thein Gyi Zay</t>
+  </si>
+  <si>
+    <t>Bo Gyoke Zay</t>
+  </si>
+  <si>
+    <t>Phyar Lan</t>
+  </si>
+  <si>
+    <t>A Shae Phat Mote</t>
+  </si>
+  <si>
+    <t>Phone Gyi Lan</t>
+  </si>
+  <si>
+    <t>San Pya</t>
+  </si>
+  <si>
+    <t>Tha Yet Taw</t>
+  </si>
+  <si>
+    <t>Pegu Club</t>
+  </si>
+  <si>
+    <t>Myaeni Gone</t>
+  </si>
+  <si>
+    <t>Bahan 3 Lan</t>
+  </si>
+  <si>
+    <t>Kone Zay Tan</t>
   </si>
 </sst>
 </file>
@@ -408,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +507,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>16.785699999999999</v>
@@ -521,68 +551,68 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>16.795200000000001</v>
+        <v>16.7989</v>
       </c>
       <c r="C10">
-        <v>96.150499999999994</v>
+        <v>96.157799999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>16.798500000000001</v>
+        <v>16.795200000000001</v>
       </c>
       <c r="C11">
-        <v>96.151600000000002</v>
+        <v>96.150499999999994</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>16.7742</v>
+        <v>16.798500000000001</v>
       </c>
       <c r="C12">
-        <v>96.161699999999996</v>
+        <v>96.151600000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>16.776599999999998</v>
+        <v>16.7742</v>
       </c>
       <c r="C13">
-        <v>96.161799999999999</v>
+        <v>96.161699999999996</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>16.7791</v>
+        <v>16.776599999999998</v>
       </c>
       <c r="C14">
-        <v>96.161900000000003</v>
+        <v>96.161799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>16.783300000000001</v>
+        <v>16.7791</v>
       </c>
       <c r="C15">
-        <v>96.162099999999995</v>
+        <v>96.161900000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,10 +620,120 @@
         <v>16</v>
       </c>
       <c r="B16">
+        <v>16.783300000000001</v>
+      </c>
+      <c r="C16">
+        <v>96.162099999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>16.793199999999999</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>96.162499999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16.7744</v>
+      </c>
+      <c r="C18">
+        <v>96.153099999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>16.776800000000001</v>
+      </c>
+      <c r="C19">
+        <v>96.153099999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>16.779299999999999</v>
+      </c>
+      <c r="C20">
+        <v>96.153300000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>16.7818</v>
+      </c>
+      <c r="C21">
+        <v>96.153400000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>16.774899999999999</v>
+      </c>
+      <c r="C22">
+        <v>96.144800000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>16.777239999999999</v>
+      </c>
+      <c r="C23">
+        <v>96.144940000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>16.780100000000001</v>
+      </c>
+      <c r="C24">
+        <v>96.144999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>16.788</v>
+      </c>
+      <c r="C25">
+        <v>96.141900000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>16.8</v>
+      </c>
+      <c r="C26">
+        <v>96.138400000000004</v>
       </c>
     </row>
   </sheetData>
